--- a/output/StructureDefinition-ch-etoc-servicerequest.xlsx
+++ b/output/StructureDefinition-ch-etoc-servicerequest.xlsx
@@ -397,10 +397,10 @@
     <t>ClinicalStatement.identifier</t>
   </si>
   <si>
-    <t>placerOrderId</t>
-  </si>
-  <si>
-    <t>Placer Order Id</t>
+    <t>placerOrderIdentifier</t>
+  </si>
+  <si>
+    <t>Placer Order Identifier</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -606,7 +606,7 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>fillerOrderId</t>
+    <t>fillerOrderIdentifier</t>
   </si>
   <si>
     <t>Filler Order Id</t>
@@ -1619,7 +1619,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="33.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.55859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-ch-etoc-servicerequest.xlsx
+++ b/output/StructureDefinition-ch-etoc-servicerequest.xlsx
@@ -609,7 +609,7 @@
     <t>fillerOrderIdentifier</t>
   </si>
   <si>
-    <t>Filler Order Id</t>
+    <t>Filler Order Identifier</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -2816,13 +2816,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -2918,7 +2918,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>109</v>
       </c>
@@ -2930,13 +2930,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>44</v>
@@ -3492,7 +3492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>155</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>44</v>
@@ -3608,7 +3608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>164</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3948,7 +3948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>109</v>
       </c>
@@ -3963,10 +3963,10 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>44</v>
@@ -4522,7 +4522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>155</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>44</v>
@@ -4638,7 +4638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>164</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -5890,7 +5890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>258</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
@@ -6464,7 +6464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>304</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
@@ -7024,7 +7024,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>351</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
@@ -7252,7 +7252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>373</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>

--- a/output/StructureDefinition-ch-etoc-servicerequest.xlsx
+++ b/output/StructureDefinition-ch-etoc-servicerequest.xlsx
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t>Person/organization who receives the request</t>
+    <t>Person/organization who receives the document</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -5546,7 +5546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>228</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>53</v>
@@ -5660,7 +5660,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>239</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>53</v>
